--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/2.1 Plantilla_Coccion_Lena.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/2.1 Plantilla_Coccion_Lena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534EE9FC-FD7E-46DF-9635-810152C277C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DB2AF-555A-4051-AAE4-939D47424B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C6899A77-0BE4-4BA8-9CC3-92CBC97C3246}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>Año</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,44 +705,68 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="e">
+      <c r="A5" s="8">
+        <v>2011</v>
+      </c>
+      <c r="B5" s="9">
+        <v>40624</v>
+      </c>
+      <c r="C5" s="8">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8" t="e">
+        <v>3</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
+        <v>2</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="10">
+        <v>5445</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12" t="e">
+      <c r="A6" s="8">
+        <v>2015</v>
+      </c>
+      <c r="B6" s="11">
+        <v>42153</v>
+      </c>
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="e">
+        <v>1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="e">
+        <v>3</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="13">
+        <v>5673</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
@@ -5788,17 +5812,17 @@
       <c r="A259" s="8"/>
       <c r="B259" s="9"/>
       <c r="C259" s="8" t="e">
-        <f t="shared" ref="C259:C322" si="12">VLOOKUP(D259,Tabla_Base,2,)</f>
+        <f t="shared" ref="C259:C310" si="12">VLOOKUP(D259,Tabla_Base,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="D259" s="8"/>
       <c r="E259" s="8" t="e">
-        <f t="shared" ref="E259:E322" si="13">VLOOKUP(F259,Tabla_Coccion,2,)</f>
+        <f t="shared" ref="E259:E310" si="13">VLOOKUP(F259,Tabla_Coccion,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="F259" s="8"/>
       <c r="G259" s="8" t="e">
-        <f t="shared" ref="G259:G322" si="14">VLOOKUP(H259,Tabla_Region,2,)</f>
+        <f t="shared" ref="G259:G310" si="14">VLOOKUP(H259,Tabla_Region,2,)</f>
         <v>#N/A</v>
       </c>
       <c r="H259" s="8"/>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/2.1 Plantilla_Coccion_Lena.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/2.1 Plantilla_Coccion_Lena.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\Para MASIVOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Gitsource\back-end\Web Dinamico 2\MRVMinem\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0DB2AF-555A-4051-AAE4-939D47424B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345BF6BA-BA1D-4167-913D-0EB1DC2659D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C6899A77-0BE4-4BA8-9CC3-92CBC97C3246}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14700" windowHeight="9825" xr2:uid="{C6899A77-0BE4-4BA8-9CC3-92CBC97C3246}"/>
   </bookViews>
   <sheets>
     <sheet name="Cocción Leña" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
   <dimension ref="A1:I310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
